--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="385">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1328,10 +1332,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1770,16 +1774,16 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>74</v>
@@ -1787,10 +1791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1801,7 +1805,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1810,19 +1814,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1872,13 +1876,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1901,10 +1905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1915,7 +1919,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1924,16 +1928,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1984,19 +1988,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2013,10 +2017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2027,28 +2031,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2098,19 +2102,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2127,10 +2131,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2141,7 +2145,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2153,16 +2157,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2188,13 +2192,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2212,19 +2216,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2241,21 +2245,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2267,16 +2271,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2326,25 +2330,25 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2355,14 +2359,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2381,16 +2385,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2440,7 +2444,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2458,7 +2462,7 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2469,14 +2473,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2495,16 +2499,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2554,7 +2558,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2566,13 +2570,13 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2583,14 +2587,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2603,25 +2607,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2670,7 +2674,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2682,13 +2686,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2699,10 +2703,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2722,20 +2726,20 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2784,7 +2788,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2796,27 +2800,27 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2827,7 +2831,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2836,105 +2840,105 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2945,7 +2949,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2954,20 +2958,20 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3016,39 +3020,39 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3059,7 +3063,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3068,16 +3072,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3128,25 +3132,25 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3157,10 +3161,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3171,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3180,16 +3184,16 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3240,25 +3244,25 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3269,10 +3273,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3292,22 +3296,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3332,29 +3336,29 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3366,16 +3370,16 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3383,16 +3387,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3408,22 +3412,22 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3448,11 +3452,11 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3470,7 +3474,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3482,16 +3486,16 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3499,10 +3503,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3513,7 +3517,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3525,13 +3529,13 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3582,13 +3586,13 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
@@ -3600,7 +3604,7 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3611,14 +3615,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3637,16 +3641,16 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3684,19 +3688,19 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3708,13 +3712,13 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3725,10 +3729,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3748,22 +3752,22 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3812,7 +3816,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3824,13 +3828,13 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3841,10 +3845,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3855,7 +3859,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3867,13 +3871,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3924,13 +3928,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -3942,7 +3946,7 @@
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -3953,14 +3957,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3979,16 +3983,16 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4026,19 +4030,19 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4050,13 +4054,13 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4067,10 +4071,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4078,10 +4082,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4090,29 +4094,29 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -4154,25 +4158,25 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4183,10 +4187,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4197,7 +4201,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4206,19 +4210,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4268,25 +4272,25 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4297,10 +4301,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4308,10 +4312,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4320,20 +4324,20 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4382,25 +4386,25 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4411,10 +4415,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4425,7 +4429,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4434,20 +4438,20 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4496,25 +4500,25 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4525,10 +4529,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4539,7 +4543,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4548,22 +4552,22 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4612,25 +4616,25 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4641,10 +4645,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4655,7 +4659,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4664,22 +4668,22 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4728,25 +4732,25 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4757,10 +4761,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4780,16 +4784,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4816,29 +4820,29 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4850,16 +4854,16 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4867,16 +4871,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4892,16 +4896,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4928,13 +4932,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4952,7 +4956,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4964,16 +4968,16 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -4981,10 +4985,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4995,7 +4999,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5007,13 +5011,13 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5064,13 +5068,13 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
@@ -5082,7 +5086,7 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5093,14 +5097,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5119,16 +5123,16 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5166,19 +5170,19 @@
         <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5190,13 +5194,13 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5207,10 +5211,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5230,22 +5234,22 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5294,7 +5298,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5306,13 +5310,13 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5323,10 +5327,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5337,7 +5341,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5349,13 +5353,13 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5406,13 +5410,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5424,7 +5428,7 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5435,14 +5439,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5461,16 +5465,16 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5508,19 +5512,19 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5532,13 +5536,13 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5549,21 +5553,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5572,29 +5576,29 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>74</v>
@@ -5636,25 +5640,25 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5665,10 +5669,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5679,7 +5683,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5688,19 +5692,19 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5750,25 +5754,25 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5779,10 +5783,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5790,10 +5794,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5802,20 +5806,20 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5864,25 +5868,25 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -5893,10 +5897,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5907,7 +5911,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5916,20 +5920,20 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5978,25 +5982,25 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6007,10 +6011,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6021,7 +6025,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6030,22 +6034,22 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6094,25 +6098,25 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6123,10 +6127,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6137,7 +6141,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6146,22 +6150,22 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6210,25 +6214,25 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6239,10 +6243,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6262,16 +6266,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6322,7 +6326,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6334,27 +6338,27 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6377,13 +6381,13 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6434,7 +6438,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6446,13 +6450,13 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6463,10 +6467,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6486,20 +6490,20 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6548,7 +6552,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6560,13 +6564,13 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6577,10 +6581,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6603,16 +6607,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6662,7 +6666,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6674,13 +6678,13 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6691,10 +6695,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6705,7 +6709,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6717,13 +6721,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6774,13 +6778,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
@@ -6792,7 +6796,7 @@
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6803,14 +6807,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6829,16 +6833,16 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6888,7 +6892,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6900,13 +6904,13 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -6917,14 +6921,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6937,25 +6941,25 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7004,7 +7008,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7016,13 +7020,13 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7033,10 +7037,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7059,13 +7063,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7092,13 +7096,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7116,7 +7120,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7128,13 +7132,13 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7145,10 +7149,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7159,7 +7163,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7171,13 +7175,13 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7228,25 +7232,25 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7257,10 +7261,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7271,7 +7275,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7283,16 +7287,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7342,25 +7346,25 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7371,10 +7375,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7385,7 +7389,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7397,16 +7401,16 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7456,25 +7460,25 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7485,10 +7489,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7511,13 +7515,13 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7568,7 +7572,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7580,13 +7584,13 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7597,10 +7601,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7611,7 +7615,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7623,13 +7627,13 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7680,13 +7684,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -7698,7 +7702,7 @@
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7709,14 +7713,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7735,16 +7739,16 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7794,7 +7798,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7806,13 +7810,13 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7823,14 +7827,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7843,25 +7847,25 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7910,7 +7914,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7922,13 +7926,13 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
@@ -7939,10 +7943,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7950,10 +7954,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -7965,13 +7969,13 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8022,25 +8026,25 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8051,10 +8055,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8065,7 +8069,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8077,13 +8081,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8134,25 +8138,25 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8163,10 +8167,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8177,7 +8181,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8189,13 +8193,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8246,25 +8250,25 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8275,10 +8279,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8301,17 +8305,17 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8360,7 +8364,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8372,13 +8376,13 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
@@ -356,7 +356,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -547,7 +547,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1)
 </t>
   </si>
   <si>
@@ -563,7 +563,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>The role a person plays representing an organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+    <t>http://hl7.org/fhir/ValueSet/practitioner-role|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -885,7 +885,7 @@
     <t>Specific specialty associated with the agency.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -998,7 +998,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -1197,7 +1197,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1514,17 +1514,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="28.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="29.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1533,26 +1533,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.31640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.75" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.13671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-PractitionerRole.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-PractitionerRole</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
